--- a/tests/test_files/1_lab_journal.xlsx
+++ b/tests/test_files/1_lab_journal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ga26jul\github\proespm-py3\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ga26jul\github\proespm-py3\tests\test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45307292-9592-46BD-AE64-FB705349E7F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641D0330-D20C-4E3B-A173-4967513D1DE5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="overview" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="71">
   <si>
     <t>day</t>
   </si>
@@ -45,24 +45,6 @@
     <t>remark</t>
   </si>
   <si>
-    <t>sp_E</t>
-  </si>
-  <si>
-    <t>sp_p</t>
-  </si>
-  <si>
-    <t>sp_t</t>
-  </si>
-  <si>
-    <t>an_T</t>
-  </si>
-  <si>
-    <t>an_p</t>
-  </si>
-  <si>
-    <t>an_t</t>
-  </si>
-  <si>
     <t>12.03.2021</t>
   </si>
   <si>
@@ -232,15 +214,38 @@
   </si>
   <si>
     <t>AES Staib DESA .vms file</t>
+  </si>
+  <si>
+    <t>nap_gas</t>
+  </si>
+  <si>
+    <t>nap_p</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>12.01.2023</t>
+  </si>
+  <si>
+    <t>leed.png</t>
+  </si>
+  <si>
+    <t>leed</t>
+  </si>
+  <si>
+    <t>TiO2_</t>
+  </si>
+  <si>
+    <t>LEED .png file</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -277,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -288,8 +293,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -605,24 +608,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L73"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="38.7109375" customWidth="1"/>
-    <col min="1020" max="1024" width="8.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="38.6640625" customWidth="1"/>
+    <col min="1023" max="1027" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -638,612 +644,581 @@
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="I2" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="8">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="I2">
+      <c r="I6" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="J2">
-        <v>800</v>
-      </c>
-      <c r="K2">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="L2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="I10" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="I11" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6" s="9">
-        <v>4.0000000000000003E-5</v>
-      </c>
-      <c r="I6">
-        <v>15</v>
-      </c>
-      <c r="J6">
-        <v>1000</v>
-      </c>
-      <c r="K6" s="9">
-        <v>4.9999999999999998E-7</v>
-      </c>
-      <c r="L6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="I13" t="s">
         <v>26</v>
       </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="14" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="B14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="C14" t="s">
         <v>30</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F12" t="s">
+      <c r="I14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="7" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F13" t="s">
+      <c r="I15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F14" t="s">
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="7" t="s">
+      <c r="I18" t="s">
         <v>39</v>
       </c>
-      <c r="C15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="7" t="s">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="7" t="s">
+      <c r="B19" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="C19" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="2" t="s">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F18" t="s">
+      <c r="B20" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="C20" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="I20" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C19" t="s">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="B21" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C20" t="s">
+      <c r="I21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="10" t="s">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="B22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="E22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" t="s">
         <v>55</v>
       </c>
-      <c r="C21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" t="s">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" t="s">
-        <v>60</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="C25" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E25" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="7"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="7"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="7"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="7"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="7"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" s="7"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" s="7"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="7"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" s="7"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" s="7"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" s="7"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" s="7"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="7"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="7"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="7"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" s="7"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" s="7"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" s="7"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" s="7"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" s="7"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" s="7"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" s="7"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" s="7"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" s="7"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" s="7"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" s="7"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" s="7"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64" s="7"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" s="7"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" s="7"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" s="7"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" s="7"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69" s="7"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70" s="7"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B71" s="7"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B72" s="7"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73" s="7"/>
     </row>
   </sheetData>

--- a/tests/test_files/1_lab_journal.xlsx
+++ b/tests/test_files/1_lab_journal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20398"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ga26jul\github\proespm-py3\tests\test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641D0330-D20C-4E3B-A173-4967513D1DE5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8943B6-CC28-4FA0-A02C-F9B2EFF04302}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="76">
   <si>
     <t>day</t>
   </si>
@@ -238,16 +238,28 @@
   </si>
   <si>
     <t>LEED .png file</t>
+  </si>
+  <si>
+    <t>stm-nanosurf-nid</t>
+  </si>
+  <si>
+    <t>afm-nanosurf-nid</t>
+  </si>
+  <si>
+    <t>afm</t>
+  </si>
+  <si>
+    <t>Nanosurf AFM .nid file</t>
+  </si>
+  <si>
+    <t>Nanosurf STM .nid file</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -260,6 +272,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -282,11 +300,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -294,6 +312,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -612,7 +632,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomLeft" activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1090,10 +1110,32 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="2"/>
+      <c r="A26" s="1">
+        <v>45098</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="2"/>
+      <c r="A27" s="1">
+        <v>45098</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
@@ -1233,6 +1275,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tests/test_files/1_lab_journal.xlsx
+++ b/tests/test_files/1_lab_journal.xlsx
@@ -280,55 +280,19 @@
     <t xml:space="preserve">Linear Sweep Voltammetry Nordic Electrochemistry EC-4</t>
   </si>
   <si>
-    <t xml:space="preserve">CV_103244_ 1.txt</t>
+    <t xml:space="preserve">CV_103244_ 1</t>
   </si>
   <si>
     <t xml:space="preserve">ca_ec4</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Chronoamperometry </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Nordic Electrochemistry EC-4 Cycle 1</t>
-    </r>
+    <t xml:space="preserve">Chronoamperometry Nordic Electrochemistry EC-4 Cycle 1</t>
   </si>
   <si>
     <t xml:space="preserve">CV_103345_ 2</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Chronoamperometry </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Nordic Electrochemistry EC-4 Cycle 2</t>
-    </r>
+    <t xml:space="preserve">Chronoamperometry Nordic Electrochemistry EC-4 Cycle 2</t>
   </si>
 </sst>
 </file>
@@ -340,7 +304,7 @@
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -378,12 +342,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -427,48 +385,52 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -492,50 +454,50 @@
   <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H32" activeCellId="0" sqref="H32"/>
+      <selection pane="bottomLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.11328125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="17.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="10.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="9.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="38.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1027" min="1023" style="0" width="8.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="12.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="17.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="10.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="9.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="38.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1027" min="1023" style="2" width="8.55"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -543,19 +505,19 @@
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="0" t="s">
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -563,19 +525,19 @@
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="0" t="s">
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -583,19 +545,19 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="0" t="s">
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -603,19 +565,19 @@
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="0" t="s">
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -623,19 +585,19 @@
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="0" t="s">
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -643,19 +605,19 @@
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="0" t="s">
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -663,19 +625,19 @@
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="0" t="s">
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -683,19 +645,19 @@
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="0" t="s">
+      <c r="C9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -703,19 +665,19 @@
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="0" t="s">
+      <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -723,19 +685,19 @@
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="0" t="s">
+      <c r="C11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -743,13 +705,13 @@
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="0" t="s">
+      <c r="I12" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -757,13 +719,13 @@
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="0" t="s">
+      <c r="I13" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -771,16 +733,16 @@
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="0" t="s">
+      <c r="I14" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -788,16 +750,16 @@
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I15" s="0" t="s">
+      <c r="I15" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -805,16 +767,16 @@
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="0" t="s">
+      <c r="I16" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -822,16 +784,16 @@
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="0" t="s">
+      <c r="I17" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -839,16 +801,16 @@
       <c r="A18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="C18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I18" s="0" t="s">
+      <c r="I18" s="2" t="s">
         <v>42</v>
       </c>
     </row>
@@ -856,19 +818,19 @@
       <c r="A19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="8" t="s">
         <v>46</v>
       </c>
     </row>
@@ -876,13 +838,13 @@
       <c r="A20" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="8" t="s">
+      <c r="I20" s="9" t="s">
         <v>50</v>
       </c>
     </row>
@@ -890,19 +852,19 @@
       <c r="A21" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="0" t="s">
+      <c r="C21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="8" t="s">
+      <c r="I21" s="9" t="s">
         <v>55</v>
       </c>
     </row>
@@ -910,16 +872,16 @@
       <c r="A22" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I22" s="0" t="s">
+      <c r="I22" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -927,13 +889,13 @@
       <c r="A23" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="I23" s="0" t="s">
+      <c r="C23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="2" t="s">
         <v>62</v>
       </c>
     </row>
@@ -941,16 +903,16 @@
       <c r="A24" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I24" s="0" t="s">
+      <c r="I24" s="2" t="s">
         <v>65</v>
       </c>
     </row>
@@ -958,16 +920,16 @@
       <c r="A25" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="I25" s="0" t="s">
+      <c r="I25" s="2" t="s">
         <v>70</v>
       </c>
     </row>
@@ -975,13 +937,13 @@
       <c r="A26" s="1" t="n">
         <v>45098</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I26" s="10" t="s">
+      <c r="C26" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" s="11" t="s">
         <v>72</v>
       </c>
     </row>
@@ -989,13 +951,13 @@
       <c r="A27" s="1" t="n">
         <v>45098</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="I27" s="10" t="s">
+      <c r="I27" s="11" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1003,13 +965,13 @@
       <c r="A28" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="I28" s="7" t="s">
+      <c r="I28" s="8" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1017,13 +979,13 @@
       <c r="A29" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="I29" s="7" t="s">
+      <c r="I29" s="8" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1031,13 +993,13 @@
       <c r="A30" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="I30" s="7" t="s">
+      <c r="I30" s="8" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1045,13 +1007,13 @@
       <c r="A31" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I31" s="0" t="s">
+      <c r="I31" s="2" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1059,126 +1021,126 @@
       <c r="A32" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I32" s="0" t="s">
+      <c r="I32" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="7"/>
+      <c r="B37" s="8"/>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="7"/>
+      <c r="B38" s="8"/>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="7"/>
+      <c r="B39" s="8"/>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="7"/>
+      <c r="B40" s="8"/>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="7"/>
+      <c r="B41" s="8"/>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="7"/>
+      <c r="B42" s="8"/>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="7"/>
+      <c r="B43" s="8"/>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="7"/>
+      <c r="B44" s="8"/>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="7"/>
+      <c r="B45" s="8"/>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="7"/>
+      <c r="B46" s="8"/>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="7"/>
+      <c r="B47" s="8"/>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="7"/>
+      <c r="B48" s="8"/>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="7"/>
+      <c r="B49" s="8"/>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="7"/>
+      <c r="B50" s="8"/>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="7"/>
+      <c r="B51" s="8"/>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="7"/>
+      <c r="B52" s="8"/>
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="7"/>
+      <c r="B53" s="8"/>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="7"/>
+      <c r="B54" s="8"/>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="7"/>
+      <c r="B55" s="8"/>
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="7"/>
+      <c r="B56" s="8"/>
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="7"/>
+      <c r="B57" s="8"/>
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="7"/>
+      <c r="B58" s="8"/>
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="7"/>
+      <c r="B59" s="8"/>
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="7"/>
+      <c r="B60" s="8"/>
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="7"/>
+      <c r="B61" s="8"/>
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="7"/>
+      <c r="B62" s="8"/>
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="7"/>
+      <c r="B63" s="8"/>
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="7"/>
+      <c r="B64" s="8"/>
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="7"/>
+      <c r="B65" s="8"/>
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="7"/>
+      <c r="B66" s="8"/>
     </row>
     <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="7"/>
+      <c r="B67" s="8"/>
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="7"/>
+      <c r="B68" s="8"/>
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="7"/>
+      <c r="B69" s="8"/>
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="7"/>
+      <c r="B70" s="8"/>
     </row>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="7"/>
+      <c r="B71" s="8"/>
     </row>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="7"/>
+      <c r="B72" s="8"/>
     </row>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="7"/>
+      <c r="B73" s="8"/>
     </row>
   </sheetData>
   <dataValidations count="2">

--- a/tests/test_files/1_lab_journal.xlsx
+++ b/tests/test_files/1_lab_journal.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ga26jul\github\proespm-py3\tests\test_files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB1663C-8862-49A3-BCFA-1BB081A43307}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="overview" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="overview" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -20,319 +25,309 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="91">
-  <si>
-    <t xml:space="preserve">day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">surface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nap_gas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nap_p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.03.2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stm-aarhus-mul-a_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W(etched)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pt(111)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STM Specs Aarhus 150 .mul file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stm-aarhus-mul-a_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stm-aarhus-mul-a_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stm-aarhus-mul-a_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.04.2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stm-aarhus-mul-b_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fe3O4(001)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stm-aarhus-mul-b_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stm-aarhus-mul-b_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stm-aarhus-mul-b_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stm-aarhus-mul-b_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stm-aarhus-mul-b_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.05.2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">png-a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.png file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">png-b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02.07.2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xps-eis_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mo SH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XPS Omicron EIS .txt file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xps-eis_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xps-eis_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xps-eis_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.07.2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20201111--4_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Au(111)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STM Omicron matrix .Z-mtrx file (.mtrx file also need)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.08.2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stm-aarhus-flm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STM Specs Aarhus 150 .flm file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.08.2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qcmb-test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qcmb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QCMB Inficon STM2 Controller .log file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08.09.2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stm-rhk-sm4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pt/Ir(cut)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HOPG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STM RHK SM4 .sm4 file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.10.2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aes-staib-dat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AES Staib DESA .dat file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.10.2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stm-nanonis-sxm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STM Nanonis .sxm file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05.06.2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aes-staib-vms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AES Staib DESA .vms file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.01.2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">leed.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">leed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TiO2_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEED .png file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stm-nanosurf-nid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nanosurf STM .nid file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">afm-nanosurf-nid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">afm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nanosurf AFM .nid file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.07.2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CV_153505_ 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cv_ec4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyclic Voltammetry Nordic Electrochemistry EC-4 Cycle 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CV_153605_ 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyclic Voltammetry Nordic Electrochemistry EC-4 Cycle 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.07.2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CV_185158_ 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lsv_ec4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linear Sweep Voltammetry Nordic Electrochemistry EC-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CV_103244_ 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_ec4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chronoamperometry Nordic Electrochemistry EC-4 Cycle 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CV_103345_ 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chronoamperometry Nordic Electrochemistry EC-4 Cycle 2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="94">
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>tip</t>
+  </si>
+  <si>
+    <t>surface</t>
+  </si>
+  <si>
+    <t>nap_gas</t>
+  </si>
+  <si>
+    <t>nap_p</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>12.03.2021</t>
+  </si>
+  <si>
+    <t>stm-aarhus-mul-a_1</t>
+  </si>
+  <si>
+    <t>stm</t>
+  </si>
+  <si>
+    <t>W(etched)</t>
+  </si>
+  <si>
+    <t>Pt(111)</t>
+  </si>
+  <si>
+    <t>STM Specs Aarhus 150 .mul file</t>
+  </si>
+  <si>
+    <t>stm-aarhus-mul-a_2</t>
+  </si>
+  <si>
+    <t>stm-aarhus-mul-a_3</t>
+  </si>
+  <si>
+    <t>stm-aarhus-mul-a_4</t>
+  </si>
+  <si>
+    <t>29.04.2021</t>
+  </si>
+  <si>
+    <t>stm-aarhus-mul-b_1</t>
+  </si>
+  <si>
+    <t>Fe3O4(001)</t>
+  </si>
+  <si>
+    <t>stm-aarhus-mul-b_2</t>
+  </si>
+  <si>
+    <t>stm-aarhus-mul-b_3</t>
+  </si>
+  <si>
+    <t>stm-aarhus-mul-b_4</t>
+  </si>
+  <si>
+    <t>stm-aarhus-mul-b_5</t>
+  </si>
+  <si>
+    <t>stm-aarhus-mul-b_6</t>
+  </si>
+  <si>
+    <t>15.05.2021</t>
+  </si>
+  <si>
+    <t>png-a</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>.png file</t>
+  </si>
+  <si>
+    <t>png-b</t>
+  </si>
+  <si>
+    <t>02.07.2021</t>
+  </si>
+  <si>
+    <t>xps-eis_1</t>
+  </si>
+  <si>
+    <t>xps</t>
+  </si>
+  <si>
+    <t>Mo SH</t>
+  </si>
+  <si>
+    <t>XPS Omicron EIS .txt file</t>
+  </si>
+  <si>
+    <t>xps-eis_2</t>
+  </si>
+  <si>
+    <t>xps-eis_3</t>
+  </si>
+  <si>
+    <t>xps-eis_4</t>
+  </si>
+  <si>
+    <t>24.07.2021</t>
+  </si>
+  <si>
+    <t>20201111--4_1</t>
+  </si>
+  <si>
+    <t>Au(111)</t>
+  </si>
+  <si>
+    <t>STM Omicron matrix .Z-mtrx file (.mtrx file also need)</t>
+  </si>
+  <si>
+    <t>12.08.2021</t>
+  </si>
+  <si>
+    <t>stm-aarhus-flm</t>
+  </si>
+  <si>
+    <t>flm</t>
+  </si>
+  <si>
+    <t>STM Specs Aarhus 150 .flm file</t>
+  </si>
+  <si>
+    <t>26.08.2021</t>
+  </si>
+  <si>
+    <t>qcmb-test</t>
+  </si>
+  <si>
+    <t>qcmb</t>
+  </si>
+  <si>
+    <t>QCMB Inficon STM2 Controller .log file</t>
+  </si>
+  <si>
+    <t>08.09.2021</t>
+  </si>
+  <si>
+    <t>stm-rhk-sm4</t>
+  </si>
+  <si>
+    <t>Pt/Ir(cut)</t>
+  </si>
+  <si>
+    <t>HOPG</t>
+  </si>
+  <si>
+    <t>STM RHK SM4 .sm4 file</t>
+  </si>
+  <si>
+    <t>19.10.2021</t>
+  </si>
+  <si>
+    <t>aes-staib-dat</t>
+  </si>
+  <si>
+    <t>aes</t>
+  </si>
+  <si>
+    <t>AES Staib DESA .dat file</t>
+  </si>
+  <si>
+    <t>23.10.2021</t>
+  </si>
+  <si>
+    <t>stm-nanonis-sxm</t>
+  </si>
+  <si>
+    <t>STM Nanonis .sxm file</t>
+  </si>
+  <si>
+    <t>05.06.2022</t>
+  </si>
+  <si>
+    <t>aes-staib-vms</t>
+  </si>
+  <si>
+    <t>AES Staib DESA .vms file</t>
+  </si>
+  <si>
+    <t>12.01.2023</t>
+  </si>
+  <si>
+    <t>leed.png</t>
+  </si>
+  <si>
+    <t>leed</t>
+  </si>
+  <si>
+    <t>TiO2_</t>
+  </si>
+  <si>
+    <t>LEED .png file</t>
+  </si>
+  <si>
+    <t>stm-nanosurf-nid</t>
+  </si>
+  <si>
+    <t>Nanosurf STM .nid file</t>
+  </si>
+  <si>
+    <t>afm-nanosurf-nid</t>
+  </si>
+  <si>
+    <t>afm</t>
+  </si>
+  <si>
+    <t>Nanosurf AFM .nid file</t>
+  </si>
+  <si>
+    <t>18.07.2023</t>
+  </si>
+  <si>
+    <t>CV_153505_ 1</t>
+  </si>
+  <si>
+    <t>cv_ec4</t>
+  </si>
+  <si>
+    <t>Cyclic Voltammetry Nordic Electrochemistry EC-4 Cycle 1</t>
+  </si>
+  <si>
+    <t>CV_153605_ 2</t>
+  </si>
+  <si>
+    <t>Cyclic Voltammetry Nordic Electrochemistry EC-4 Cycle 2</t>
+  </si>
+  <si>
+    <t>12.07.2023</t>
+  </si>
+  <si>
+    <t>CV_185158_ 1</t>
+  </si>
+  <si>
+    <t>lsv_ec4</t>
+  </si>
+  <si>
+    <t>Linear Sweep Voltammetry Nordic Electrochemistry EC-4</t>
+  </si>
+  <si>
+    <t>CV_103244_ 1</t>
+  </si>
+  <si>
+    <t>ca_ec4</t>
+  </si>
+  <si>
+    <t>Chronoamperometry Nordic Electrochemistry EC-4 Cycle 1</t>
+  </si>
+  <si>
+    <t>CV_103345_ 2</t>
+  </si>
+  <si>
+    <t>Chronoamperometry Nordic Electrochemistry EC-4 Cycle 2</t>
+  </si>
+  <si>
+    <t>29.09.2023</t>
+  </si>
+  <si>
+    <t>jpeg_test</t>
+  </si>
+  <si>
+    <t>.jpeg file</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
-    <numFmt numFmtId="166" formatCode="@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -352,7 +347,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -360,119 +355,359 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMM73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.11328125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="12.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="17.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="10.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="9.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="38.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1027" min="1023" style="2" width="8.55"/>
+    <col min="1" max="1" width="14.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="38.6640625" style="2" customWidth="1"/>
+    <col min="1023" max="1027" width="8.5546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -501,7 +736,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -521,7 +756,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -541,7 +776,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -561,7 +796,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -581,7 +816,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -601,7 +836,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -621,7 +856,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -641,7 +876,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -661,7 +896,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -681,7 +916,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -701,7 +936,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -715,7 +950,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -729,7 +964,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -746,7 +981,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
@@ -763,7 +998,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
@@ -780,7 +1015,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
@@ -797,7 +1032,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>39</v>
       </c>
@@ -814,7 +1049,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>43</v>
       </c>
@@ -834,7 +1069,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>47</v>
       </c>
@@ -848,7 +1083,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>51</v>
       </c>
@@ -868,7 +1103,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>56</v>
       </c>
@@ -885,7 +1120,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>60</v>
       </c>
@@ -899,7 +1134,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>63</v>
       </c>
@@ -916,7 +1151,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>66</v>
       </c>
@@ -933,8 +1168,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
         <v>45098</v>
       </c>
       <c r="B26" s="10" t="s">
@@ -947,8 +1182,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
         <v>45098</v>
       </c>
       <c r="B27" s="10" t="s">
@@ -961,7 +1196,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>76</v>
       </c>
@@ -975,7 +1210,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>76</v>
       </c>
@@ -989,7 +1224,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>82</v>
       </c>
@@ -1003,7 +1238,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>76</v>
       </c>
@@ -1017,7 +1252,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>76</v>
       </c>
@@ -1031,134 +1266,143 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B37" s="8"/>
     </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B38" s="8"/>
     </row>
-    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B39" s="8"/>
     </row>
-    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B40" s="8"/>
     </row>
-    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B41" s="8"/>
     </row>
-    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B42" s="8"/>
     </row>
-    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B43" s="8"/>
     </row>
-    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B44" s="8"/>
     </row>
-    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B45" s="8"/>
     </row>
-    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B46" s="8"/>
     </row>
-    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B47" s="8"/>
     </row>
-    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B48" s="8"/>
     </row>
-    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="8"/>
     </row>
-    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="8"/>
     </row>
-    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="8"/>
     </row>
-    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" s="8"/>
     </row>
-    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" s="8"/>
     </row>
-    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" s="8"/>
     </row>
-    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" s="8"/>
     </row>
-    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" s="8"/>
     </row>
-    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" s="8"/>
     </row>
-    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" s="8"/>
     </row>
-    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" s="8"/>
     </row>
-    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" s="8"/>
     </row>
-    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" s="8"/>
     </row>
-    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" s="8"/>
     </row>
-    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" s="8"/>
     </row>
-    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64" s="8"/>
     </row>
-    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" s="8"/>
     </row>
-    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" s="8"/>
     </row>
-    <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" s="8"/>
     </row>
-    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" s="8"/>
     </row>
-    <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69" s="8"/>
     </row>
-    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70" s="8"/>
     </row>
-    <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B71" s="8"/>
     </row>
-    <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B72" s="8"/>
     </row>
-    <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73" s="8"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="false" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="B2:B5" type="none">
+    <dataValidation sqref="B2:B5" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B1" type="whole">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>0</formula1>
       <formula2>999</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/tests/test_files/1_lab_journal.xlsx
+++ b/tests/test_files/1_lab_journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ga26jul\github\proespm-py3\tests\test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB1663C-8862-49A3-BCFA-1BB081A43307}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068C52C5-E6F2-4F88-9985-3ADB4D646DDE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="93">
   <si>
     <t>day</t>
   </si>
@@ -108,18 +108,12 @@
     <t>15.05.2021</t>
   </si>
   <si>
-    <t>png-a</t>
-  </si>
-  <si>
     <t>image</t>
   </si>
   <si>
     <t>.png file</t>
   </si>
   <si>
-    <t>png-b</t>
-  </si>
-  <si>
     <t>02.07.2021</t>
   </si>
   <si>
@@ -307,6 +301,9 @@
   </si>
   <si>
     <t>.jpeg file</t>
+  </si>
+  <si>
+    <t>png_test</t>
   </si>
 </sst>
 </file>
@@ -687,11 +684,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMM73"/>
+  <dimension ref="A1:AMM72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
+      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -941,230 +938,230 @@
         <v>26</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="2" t="s">
+    </row>
+    <row r="13" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="I13" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="E14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="E15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="E16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>11</v>
+        <v>43</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>42</v>
+        <v>13</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>49</v>
+        <v>11</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>55</v>
+        <v>13</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>11</v>
+        <v>56</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E25" s="3" t="s">
+      <c r="A25" s="1">
+        <v>45098</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="C25" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" s="11" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1176,35 +1173,35 @@
         <v>71</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>45098</v>
-      </c>
-      <c r="B27" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="11" t="s">
+    </row>
+    <row r="27" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I27" s="11" t="s">
+      <c r="B27" s="3" t="s">
         <v>75</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="I28" s="8" t="s">
         <v>79</v>
@@ -1212,41 +1209,41 @@
     </row>
     <row r="29" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I30" s="8" t="s">
         <v>85</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>88</v>
@@ -1254,66 +1251,55 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I32" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="8"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="8"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="8"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="8"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="8"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="8"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" s="8"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" s="8"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="8"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" s="8"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" s="8"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" s="8"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" s="8"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.3">
@@ -1387,9 +1373,6 @@
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B72" s="8"/>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B73" s="8"/>
     </row>
   </sheetData>
   <dataValidations count="2">

--- a/tests/test_files/1_lab_journal.xlsx
+++ b/tests/test_files/1_lab_journal.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ga26jul\github\proespm-py3\tests\test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068C52C5-E6F2-4F88-9985-3ADB4D646DDE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3000B2-B657-4E80-AE54-4E35820840B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="overview" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0" iterate="1" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="105">
   <si>
     <t>day</t>
   </si>
@@ -304,6 +304,42 @@
   </si>
   <si>
     <t>png_test</t>
+  </si>
+  <si>
+    <t>20.07.2023</t>
+  </si>
+  <si>
+    <t>CV_50mvs_001</t>
+  </si>
+  <si>
+    <t>cv_lv</t>
+  </si>
+  <si>
+    <t>Cyclic Voltammetry ECSTM (LabVIEW)</t>
+  </si>
+  <si>
+    <t>27.02.2018</t>
+  </si>
+  <si>
+    <t>CA_Pulse-Time-4_01</t>
+  </si>
+  <si>
+    <t>ca_lv</t>
+  </si>
+  <si>
+    <t>Chronoamperometry ECSTM (LabVIEW)</t>
+  </si>
+  <si>
+    <t>FFT_test</t>
+  </si>
+  <si>
+    <t>fft_lv</t>
+  </si>
+  <si>
+    <t>25.05.2023</t>
+  </si>
+  <si>
+    <t>FFT ECSTM (LabVIEW) - try to show only up to 2 kHz to visualize most relevant noise</t>
   </si>
 </sst>
 </file>
@@ -688,7 +724,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
+      <selection pane="bottomLeft" activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1251,55 +1287,97 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B33" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I32" s="8" t="s">
+      <c r="I33" s="8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B36" s="8"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B37" s="8"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B38" s="8"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B39" s="8"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B40" s="8"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B41" s="8"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B42" s="8"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B43" s="8"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B44" s="8"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B45" s="8"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B46" s="8"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B47" s="8"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B48" s="8"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.3">
